--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,10 +49,19 @@
     <t>died</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>war</t>
@@ -64,9 +73,6 @@
     <t>low</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -88,66 +94,69 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>friends</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -163,13 +172,19 @@
     <t>like</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>protect</t>
   </si>
   <si>
     <t>energy</t>
@@ -178,21 +193,15 @@
     <t>please</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -208,16 +217,16 @@
     <t>grocery</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>19</t>
   </si>
   <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -575,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,16 +674,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -694,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,16 +774,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7241379310344828</v>
+        <v>0.76</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6">
         <v>0.8888888888888888</v>
@@ -865,16 +874,16 @@
         <v>85</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,7 +903,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -912,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,38 +953,38 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4133333333333333</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L9">
         <v>31</v>
       </c>
-      <c r="D9">
+      <c r="M9">
         <v>31</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>44</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9">
-        <v>0.8414634146341463</v>
-      </c>
-      <c r="L9">
-        <v>69</v>
-      </c>
-      <c r="M9">
-        <v>69</v>
-      </c>
       <c r="N9">
         <v>1</v>
       </c>
@@ -986,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3557046979865772</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.84375</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3389830508474576</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.828125</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L11">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="M11">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3313953488372093</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C12">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>345</v>
+        <v>43</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2962962962962963</v>
+        <v>0.3892617449664429</v>
       </c>
       <c r="C13">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.8085106382978723</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2727272727272727</v>
+        <v>0.3313953488372093</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>56</v>
+        <v>345</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.7887323943661971</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2222222222222222</v>
+        <v>0.291005291005291</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.7833333333333333</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L15">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1865079365079365</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C16">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>205</v>
+        <v>56</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.746031746031746</v>
+        <v>0.775</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1344,89 +1353,137 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1126005361930295</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>70</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="L17">
+        <v>39</v>
+      </c>
+      <c r="M17">
+        <v>39</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.1507936507936508</v>
+      </c>
+      <c r="C18">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>214</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>0.746031746031746</v>
+      </c>
+      <c r="L18">
+        <v>47</v>
+      </c>
+      <c r="M18">
+        <v>47</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.09919571045576407</v>
+      </c>
+      <c r="C19">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>336</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17">
-        <v>42</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>331</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>0.7450980392156863</v>
-      </c>
-      <c r="L17">
-        <v>38</v>
-      </c>
-      <c r="M17">
-        <v>38</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.7358490566037735</v>
-      </c>
-      <c r="L18">
-        <v>78</v>
-      </c>
-      <c r="M18">
-        <v>78</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="K19">
-        <v>0.73125</v>
+        <v>0.74375</v>
       </c>
       <c r="L19">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M19">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1438,21 +1495,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.6785714285714286</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1464,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1490,21 +1547,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.6595744680851063</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L22">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M22">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1516,21 +1573,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.6458333333333334</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1542,21 +1599,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.6318537859007833</v>
+        <v>0.625</v>
       </c>
       <c r="L24">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1568,21 +1625,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.5882352941176471</v>
+        <v>0.6083550913838121</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1594,21 +1651,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.58</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1620,21 +1677,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.5676470588235294</v>
+        <v>0.58</v>
       </c>
       <c r="L27">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1646,21 +1703,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.5581395348837209</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1672,21 +1729,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.550561797752809</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L29">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1698,21 +1755,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.5491525423728814</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L30">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M30">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1724,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.525</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1750,21 +1807,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.4728033472803347</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="L32">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1776,21 +1833,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>126</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.4666666666666667</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1802,21 +1859,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>0.4520547945205479</v>
+        <v>0.475</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1828,21 +1885,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>0.4461538461538462</v>
+        <v>0.4351464435146444</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1854,21 +1911,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>36</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>0.4375</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1880,21 +1937,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K37">
-        <v>0.3846153846153846</v>
+        <v>0.390625</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1906,21 +1963,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K38">
-        <v>0.3571428571428572</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1932,21 +1989,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K39">
-        <v>0.1028708133971292</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="L39">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1958,21 +2015,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>375</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K40">
-        <v>0.07211538461538461</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1984,21 +2041,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K41">
-        <v>0.04697986577181208</v>
+        <v>0.07451923076923077</v>
       </c>
       <c r="L41">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2010,21 +2067,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>852</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K42">
-        <v>0.04328523862375139</v>
+        <v>0.058165548098434</v>
       </c>
       <c r="L42">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="M42">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2036,21 +2093,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>862</v>
+        <v>842</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K43">
-        <v>0.03538461538461538</v>
+        <v>0.04661487236403995</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2062,85 +2119,111 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>627</v>
+        <v>859</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K44">
-        <v>0.02655889145496536</v>
+        <v>0.02664796633941094</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="N44">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O44">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>843</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K45">
-        <v>0.02616822429906542</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="L45">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>2084</v>
+        <v>846</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K46">
-        <v>0.01256848211408314</v>
+        <v>0.01129761136216914</v>
       </c>
       <c r="L46">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M46">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N46">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="O46">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>3064</v>
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K47">
+        <v>0.006570713391739674</v>
+      </c>
+      <c r="L47">
+        <v>21</v>
+      </c>
+      <c r="M47">
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O47">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>3175</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,24 +43,18 @@
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
@@ -70,18 +64,18 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -94,123 +88,132 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>energy</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>join</t>
+    <t>alert</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>supermarket</t>
@@ -584,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +598,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,16 +680,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>26</v>
       </c>
-      <c r="K3">
-        <v>0.9782608695652174</v>
-      </c>
-      <c r="L3">
-        <v>45</v>
-      </c>
       <c r="M3">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -695,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -703,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -745,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -774,16 +780,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.76</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -821,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -853,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.708904109589041</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="C7">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D7">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L7">
         <v>30</v>
       </c>
-      <c r="K7">
-        <v>0.8846153846153846</v>
-      </c>
-      <c r="L7">
-        <v>23</v>
-      </c>
       <c r="M7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -903,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6896551724137931</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -921,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8839285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -945,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6129032258064516</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8611111111111112</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5128205128205128</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.84375</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.3585271317829458</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8414634146341463</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1095,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1103,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4266666666666667</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,10 +1127,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K12">
         <v>0.8275862068965517</v>
@@ -1153,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3892617449664429</v>
+        <v>0.3221476510067114</v>
       </c>
       <c r="C13">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1171,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8098591549295775</v>
+        <v>0.8203125</v>
       </c>
       <c r="L13">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M13">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1195,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1203,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3313953488372093</v>
+        <v>0.2804232804232804</v>
       </c>
       <c r="C14">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1221,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>345</v>
+        <v>136</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.7872340425531915</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1245,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1253,13 +1259,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.291005291005291</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C15">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1271,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7857142857142857</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1295,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,13 +1309,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2727272727272727</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1321,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.775</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1345,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1353,13 +1359,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2222222222222222</v>
+        <v>0.1126005361930295</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1371,119 +1377,71 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>70</v>
+        <v>331</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L17">
+        <v>95</v>
+      </c>
+      <c r="M17">
+        <v>95</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L18">
+        <v>19</v>
+      </c>
+      <c r="M18">
+        <v>19</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K17">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L17">
-        <v>39</v>
-      </c>
-      <c r="M17">
-        <v>39</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.1507936507936508</v>
-      </c>
-      <c r="C18">
-        <v>38</v>
-      </c>
-      <c r="D18">
-        <v>38</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>214</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.746031746031746</v>
-      </c>
-      <c r="L18">
-        <v>47</v>
-      </c>
-      <c r="M18">
-        <v>47</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.09919571045576407</v>
-      </c>
-      <c r="C19">
-        <v>37</v>
-      </c>
-      <c r="D19">
-        <v>37</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>336</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K19">
-        <v>0.74375</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L19">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1495,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>0.7264150943396226</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L20">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1547,47 +1505,47 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.71875</v>
+      </c>
+      <c r="L22">
+        <v>115</v>
+      </c>
+      <c r="M22">
+        <v>115</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>45</v>
-      </c>
-      <c r="K22">
-        <v>0.6914893617021277</v>
-      </c>
-      <c r="L22">
-        <v>65</v>
-      </c>
-      <c r="M22">
-        <v>65</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.6388888888888888</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1599,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.625</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1625,21 +1583,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.6083550913838121</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1651,21 +1609,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.5882352941176471</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1677,21 +1635,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.58</v>
+        <v>0.625</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1703,21 +1661,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.5764705882352941</v>
+        <v>0.6135770234986945</v>
       </c>
       <c r="L28">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="M28">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1729,21 +1687,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1755,21 +1713,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.5423728813559322</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L30">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1781,21 +1739,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>135</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.5393258426966292</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L31">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="M31">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1807,21 +1765,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.5348837209302325</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1833,21 +1791,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.4794520547945205</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1859,21 +1817,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.475</v>
+        <v>0.535593220338983</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1885,21 +1843,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.4351464435146444</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L35">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="M35">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1911,21 +1869,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>135</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.4230769230769231</v>
+        <v>0.5</v>
       </c>
       <c r="L36">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1937,21 +1895,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.390625</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1963,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.3692307692307693</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1989,21 +1947,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>41</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.3428571428571429</v>
+        <v>0.4375</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2015,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.08133971291866028</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2041,21 +1999,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>384</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.07451923076923077</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2067,21 +2025,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>385</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.058165548098434</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="L42">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2093,21 +2051,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>842</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.04661487236403995</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2119,47 +2077,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>859</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.02664796633941094</v>
+        <v>0.09808612440191387</v>
       </c>
       <c r="L44">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M44">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="N44">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2082</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.02422145328719723</v>
+        <v>0.05369127516778523</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2176,54 +2134,158 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K46">
-        <v>0.01129761136216914</v>
+        <v>0.03995560488346282</v>
       </c>
       <c r="L46">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M46">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N46">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>3063</v>
+        <v>865</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K47">
+        <v>0.03408029878618114</v>
+      </c>
+      <c r="L47">
+        <v>73</v>
+      </c>
+      <c r="M47">
+        <v>74</v>
+      </c>
+      <c r="N47">
+        <v>0.99</v>
+      </c>
+      <c r="O47">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K48">
+        <v>0.03395061728395062</v>
+      </c>
+      <c r="L48">
+        <v>22</v>
+      </c>
+      <c r="M48">
+        <v>24</v>
+      </c>
+      <c r="N48">
+        <v>0.92</v>
+      </c>
+      <c r="O48">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K47">
-        <v>0.006570713391739674</v>
-      </c>
-      <c r="L47">
+      <c r="K49">
+        <v>0.02540415704387991</v>
+      </c>
+      <c r="L49">
+        <v>22</v>
+      </c>
+      <c r="M49">
+        <v>23</v>
+      </c>
+      <c r="N49">
+        <v>0.96</v>
+      </c>
+      <c r="O49">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50">
+        <v>0.01835748792270531</v>
+      </c>
+      <c r="L50">
+        <v>57</v>
+      </c>
+      <c r="M50">
+        <v>59</v>
+      </c>
+      <c r="N50">
+        <v>0.97</v>
+      </c>
+      <c r="O50">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K51">
+        <v>0.006564551422319475</v>
+      </c>
+      <c r="L51">
         <v>21</v>
       </c>
-      <c r="M47">
-        <v>26</v>
-      </c>
-      <c r="N47">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O47">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>3175</v>
+      <c r="M51">
+        <v>23</v>
+      </c>
+      <c r="N51">
+        <v>0.91</v>
+      </c>
+      <c r="O51">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3178</v>
       </c>
     </row>
   </sheetData>
